--- a/Guatemala.xlsx
+++ b/Guatemala.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dizucarsv-my.sharepoint.com/personal/miguelbarahona_dizucar_com/Documents/Escritorio/UDB/DataWareHouse y Mineria de datos/Desafio 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D2F04E46CFB4ACB3E20450D96E536693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B033FCE6-D461-573F-A159-CF30A344B859}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D2F04E46CFB4ACB3E20450D96E536693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{780CC2FA-A08C-493F-BAA2-72514AC5EC5E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>PAIS</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>TOTAL FACTURACION</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>8344.90</t>
   </si>
 </sst>
 </file>
@@ -362,10 +353,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -375,7 +366,7 @@
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,15 +377,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>8344.90</t>
+        </is>
       </c>
     </row>
   </sheetData>
